--- a/国际联播快讯+国际独条新闻.xlsx
+++ b/国际联播快讯+国际独条新闻.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1204" uniqueCount="600">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1282" uniqueCount="639">
   <si>
     <t>国际联播快讯</t>
   </si>
@@ -2261,6 +2261,142 @@
   </si>
   <si>
     <t>伊朗：美制裁迫使伊“自给自足” 20日是伊朗波斯历新年。伊朗最高领袖哈梅内伊在新年讲话中说，由于美国的制裁，伊朗面临很多经济问题，但制裁也迫使伊朗成为一个能够“自给自足”的国家。伊朗总统鲁哈尼说，在疫情蔓延的情况下，美国也没有放弃对伊朗的制裁，严重伤害了伊朗普通民众的健康和收入，他呼吁美国民众对政府施压，解除对伊朗的制裁。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>克罗地亚首都萨格勒布以北22日发生5.3级地震，造成大量房屋受损，目前已有两人受伤。据欧洲-地中海地震中心消息，震源深度10公里。随后发生多次余震，其中一次震级超过5级。萨格勒布多处建筑受损，一些市民受伤或被困。</t>
+  </si>
+  <si>
+    <t>克罗地亚首都以北发生5.3级地震</t>
+  </si>
+  <si>
+    <t>克罗地亚</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>美国联邦储备委员会23日宣布，将继续购买美国国债和抵押贷款支持证券，不设额度上限，相当于“无上限”量化宽松政策，试图支撑美国经济应对新冠肺炎疫情冲击。同时，美联储还称，采取措施支持信贷流动。不过，纽约股市当天仍然低开。当天收盘时，三大股指均下跌，其中道琼斯指数下跌近600点，跌幅为3.04%。分析人士认为，美联储的货币政策工具已经用到“极致”，能否阻止美国经济陷入衰退，仍将取决于美国政府能否有效应对疫情冲击和出台有针对性的财政政策。而23日当天，一项相关财政刺激方案在美国参议院投票表决中未获通过。</t>
+  </si>
+  <si>
+    <t>美联储“无上限”量化宽松 美股仍下跌</t>
+  </si>
+  <si>
+    <t>国际奥委会：将评估奥运会举办方案 国际奥委会执委会22日发布声明说，将在未来四周内完成对新冠肺炎疫情的评估，以及对东京奥运会举办方案的详细讨论，推迟举办是备选方案之一，但取消东京奥运会不在议程之上。日本首相安倍晋三今天（3月23日）也表示，推迟举办东京奥运会是选项之一，但东京奥运会肯定不会被取消。这是安倍首次表示东京奥运会可能推迟举行。</t>
+  </si>
+  <si>
+    <t>伊朗最高领袖：美国应立即取消制裁伊朗 最高领袖哈梅内伊22日表示，美国声称愿意就新冠疫情援助伊朗的提议让人感到奇怪，伊朗不会接受。他说，美国国内当前医疗物资短缺，如果有了医疗物资，美国还是留给自己用。伊朗总统鲁哈尼等多位伊朗官员也指出，美国的非法制裁严重阻碍伊朗抗击疫情。如果美国真心想帮助伊朗，就应该立即取消制裁。</t>
+  </si>
+  <si>
+    <t>日本</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>伊朗、美国</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>美国</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>俄叙讨论执行伊德利卜停火协议 俄罗斯国防部长绍伊古23日访问叙利亚，与叙利亚总统巴沙尔举行了会谈，重点讨论了叙利亚伊德利卜省停火协议的执行问题。根据俄罗斯和土耳其领导人达成的协议，伊德利卜应于6日停火，但此后冲突仍有发生。</t>
+  </si>
+  <si>
+    <t>俄罗斯、叙利亚</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>美国、阿富汗</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>索政府军打死27名“青年党”武装分子 索马里军方21日说，索马里政府军20日在南部港口城市基斯马尤的郊外发起一次进攻，与“青年党”武装分子交火。最终，政府军打死了27名武装分子，同时摧毁了两辆装满爆炸物的汽车。索马里“青年党”是与“基地”组织有关联的极端组织，近年来在索马里及其邻国多次发动恐怖袭击。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>索马里</t>
+  </si>
+  <si>
+    <t>俄“联盟”号一箭34星发射成功 俄罗斯联邦航天局宣布，当地时间21日22点07分，携带34颗卫星的俄罗斯“联盟2.1b”号运载火箭，在位于哈萨克斯坦的拜科努尔航天发射中心成功发射，并已将34颗卫星送入预定轨道。此次发射的34颗卫星隶属于英国一家公司，原定在位于法属圭亚那的发射中心进行发射，但受新冠肺炎疫情影响被转到了拜科努尔航天发射中心。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>迪拜遭遇暴雨和冰雹等极端天气 21日，阿联酋多地遭遇罕见的暴雨天气。在迪拜，除了暴雨，还遭遇了短时大风和冰雹等恶劣天气。气象部门预计，本轮降雨天气将持续到25日，警方提醒民众注意交通安全等。今年1月11日，阿联酋多地就曾遭遇一场暴雨，迪拜当天的累计降雨量超过150毫米，是1月份平均降雨量的15倍。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>迪拜</t>
+  </si>
+  <si>
+    <t>美称将对阿富汗援助削减10亿美元 美国国务院23日发表声明称，今年美国对阿富汗援助将削减10亿美元。理由是阿富汗未能组建包容性政府。当前阿富汗陷入政治动荡，美国与阿富汗塔利班签署的和平协议执行也陷入僵局。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>国际油价26日大幅下跌</t>
+  </si>
+  <si>
+    <t>国际奥委会：东京奥运会改期至明年国际奥委会和东京奥组委24日宣布，鉴于当前疫情形势，为保护运动员、奥运会参与者和国际社会的健康，原定今年7月在东京举行的第32届奥运会改期到明年举行，具体日期尚待确定，但应不迟于2021年夏天。双方决定，奥运火种将留在日本，东京2020年奥运会和残奥会的名称也不变。</t>
+  </si>
+  <si>
+    <t>俄罗斯将扩大向伊朗出口农产品 根据俄罗斯外交部网站24日发布的公告，俄罗斯外长拉夫罗夫当天与伊朗外长扎里夫通电话时说，俄方将扩大向伊朗出口伊方急需的农产品，尤其是在当前美国对伊朗实施单方面非法制裁的情况下。公告说，俄方坚决主张，美国应立即撤销对他国实施的非法制裁，因为这些制裁不利于全面抗击新冠肺炎疫情。</t>
+  </si>
+  <si>
+    <t>世贸组织呼吁全球性应对疫情 25日，世界贸易组织总干事阿泽维多说，最新预测显示，本次新冠肺炎疫情造成的经济下行和失业状况将比十几年前的金融危机更加严重，需要全球性的应对措施，还要增加透明度与信息共享。</t>
+  </si>
+  <si>
+    <t>法国决定从伊拉克撤军 法国国防部25日发布公告说，由于目前的新冠肺炎疫情，法国决定撤回在伊拉克的军队。 这次撤军从26日开始，涉及到参与培训伊拉克部队和在打击极端组织“国际联盟”参谋部工作的100多名法军士兵。法国国防部强调，将继续致力于打击极端组织“国际联盟”的工作。</t>
+  </si>
+  <si>
+    <t>中老铁路老挝段开始铺轨 中老铁路首根500米长的钢轨27日在老挝首都万象成功铺设，标志着中老铁路老挝段进入线上施工关键期。目前，桥梁、隧道和路基等线下土建工程也已进入收尾阶段。中老铁路是中国“一带一路”倡议与老挝“变陆锁国为陆联国”战略对接项目，全部采用中国管理标准和技术标准建设，计划2021年12月建成通车。</t>
+  </si>
+  <si>
+    <t>俄方：应无条件取消对委内瑞拉制裁 俄罗斯外交部发言人扎哈罗娃27日表示，在当前复杂的经济形势和新冠肺炎大流行情况下，美国对委内瑞拉实施单方面非法制裁使成千上万委内瑞拉人的生命受到威胁，应无条件取消相关制裁。俄罗斯提供的首批1万套新冠病毒检测试剂已空运至委内瑞拉。</t>
+  </si>
+  <si>
+    <t>阿富汗政府准备与塔利班直接对话 阿富汗政府方面27日发表声明说，已组建了21人的代表团，将与阿富汗塔利班举行直接对话，讨论阿富汗局势的政治解决方案。根据美国政府与阿富汗塔利班2月底达成的协议，阿富汗政府与塔利班3月10日开始内部对话，在此之前双方互相释放部分在押人员。阿富汗政府反对将释放塔利班人员作为对话的前提条件，此后双方冲突不断。</t>
+  </si>
+  <si>
+    <t>东京奥组委：或在明年6至9月办奥运 东京奥组委主席森喜朗28日在接受日本媒体采访时表示，东京奥运会会在明年夏天举行，具体时间应该在6月到9月之间。24日，国际奥委会与东京奥组委发布联合声明，鉴于当前疫情形势，东京奥运会需要改期到明年举行。</t>
+  </si>
+  <si>
+    <t>俄指美向叙难民营地区武装运送物资 俄罗斯和叙利亚跨部门协调指挥部28日发表联合声明称，美国近期打着防控新冠肺炎疫情的幌子，称向叙利亚“鲁克班”难民营展开人道主义援助，但实际上是想为武装分子运送物资。“鲁克班”难民营的人道主义问题是美国非法占领叙利亚这一地区的后果。“鲁克班”难民营位于叙利亚东南部与约旦交界地区，美军在其附近的坦夫地区设有训练叙反对派武装的基地。</t>
+  </si>
+  <si>
+    <t>阿富汗塔利班称政府代表团无代表性 阿富汗塔利班28日表示，阿富汗政府组建的和平对话代表团不能代表阿富汗所有派别的声音，因此，塔利班拒绝与该代表团对话，阿富汗政府只能像其他阿富汗派别一样，作为一方参加阿富汗内部对话。阿富汗政府方面27日表示，经过广泛磋商和讨论后从社会各界挑选出来21人组建成代表团。代表团将代表阿富汗政府同塔利班展开和平对话，讨论如何为阿富汗局势找到政治解决方案。</t>
+  </si>
+  <si>
+    <t>日本</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>俄罗斯、伊朗</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>世贸组织</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>法国、伊拉克</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>中国、老挝</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>俄罗斯、委内瑞拉、美国</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>阿富汗</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>日本</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>俄罗斯、叙利亚、美国</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2607,10 +2743,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:XFC301"/>
+  <dimension ref="A1:XFC321"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A286" workbookViewId="0">
-      <selection activeCell="D301" sqref="D301"/>
+    <sheetView tabSelected="1" topLeftCell="A285" workbookViewId="0">
+      <selection activeCell="A296" sqref="A296"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -56870,6 +57006,340 @@
         <v>598</v>
       </c>
     </row>
+    <row r="302" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A302" s="1">
+        <v>20200322</v>
+      </c>
+      <c r="B302" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C302" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D302" s="1" t="s">
+        <v>613</v>
+      </c>
+      <c r="E302" s="2" t="s">
+        <v>614</v>
+      </c>
+    </row>
+    <row r="303" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A303" s="1">
+        <v>20200322</v>
+      </c>
+      <c r="B303" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C303" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D303" s="1" t="s">
+        <v>615</v>
+      </c>
+      <c r="E303" s="2" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="304" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A304" s="1">
+        <v>20200322</v>
+      </c>
+      <c r="B304" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C304" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D304" s="1" t="s">
+        <v>616</v>
+      </c>
+      <c r="E304" s="2" t="s">
+        <v>617</v>
+      </c>
+    </row>
+    <row r="305" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A305" s="1">
+        <v>20200322</v>
+      </c>
+      <c r="B305" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="C305" s="1" t="s">
+        <v>601</v>
+      </c>
+      <c r="D305" s="1" t="s">
+        <v>600</v>
+      </c>
+      <c r="E305" s="2" t="s">
+        <v>602</v>
+      </c>
+    </row>
+    <row r="306" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A306" s="1">
+        <v>20200323</v>
+      </c>
+      <c r="B306" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C306" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D306" s="1" t="s">
+        <v>605</v>
+      </c>
+      <c r="E306" s="2" t="s">
+        <v>607</v>
+      </c>
+    </row>
+    <row r="307" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A307" s="1">
+        <v>20200323</v>
+      </c>
+      <c r="B307" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C307" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D307" s="1" t="s">
+        <v>606</v>
+      </c>
+      <c r="E307" s="2" t="s">
+        <v>608</v>
+      </c>
+    </row>
+    <row r="308" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A308" s="1">
+        <v>20200324</v>
+      </c>
+      <c r="B308" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="C308" s="1" t="s">
+        <v>604</v>
+      </c>
+      <c r="D308" s="1" t="s">
+        <v>603</v>
+      </c>
+      <c r="E308" s="2" t="s">
+        <v>609</v>
+      </c>
+    </row>
+    <row r="309" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A309" s="1">
+        <v>20200324</v>
+      </c>
+      <c r="B309" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C309" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D309" s="1" t="s">
+        <v>610</v>
+      </c>
+      <c r="E309" s="2" t="s">
+        <v>611</v>
+      </c>
+    </row>
+    <row r="310" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A310" s="1">
+        <v>20200324</v>
+      </c>
+      <c r="B310" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C310" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D310" t="s">
+        <v>618</v>
+      </c>
+      <c r="E310" s="2" t="s">
+        <v>612</v>
+      </c>
+    </row>
+    <row r="311" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A311" s="1">
+        <v>20200325</v>
+      </c>
+      <c r="B311" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C311" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D311" s="1" t="s">
+        <v>620</v>
+      </c>
+      <c r="E311" s="1" t="s">
+        <v>630</v>
+      </c>
+    </row>
+    <row r="312" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A312" s="1">
+        <v>20200325</v>
+      </c>
+      <c r="B312" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C312" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D312" s="1" t="s">
+        <v>621</v>
+      </c>
+      <c r="E312" s="1" t="s">
+        <v>631</v>
+      </c>
+    </row>
+    <row r="313" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A313" s="1">
+        <v>20200326</v>
+      </c>
+      <c r="B313" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C313" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D313" s="1" t="s">
+        <v>622</v>
+      </c>
+      <c r="E313" s="1" t="s">
+        <v>632</v>
+      </c>
+    </row>
+    <row r="314" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A314" s="1">
+        <v>20200326</v>
+      </c>
+      <c r="B314" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C314" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D314" s="1" t="s">
+        <v>623</v>
+      </c>
+      <c r="E314" s="1" t="s">
+        <v>633</v>
+      </c>
+    </row>
+    <row r="315" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A315" s="1">
+        <v>20200327</v>
+      </c>
+      <c r="B315" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="C315" s="1" t="s">
+        <v>619</v>
+      </c>
+    </row>
+    <row r="316" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A316" s="1">
+        <v>20200328</v>
+      </c>
+      <c r="B316" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C316" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D316" s="1" t="s">
+        <v>624</v>
+      </c>
+      <c r="E316" s="2" t="s">
+        <v>634</v>
+      </c>
+    </row>
+    <row r="317" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A317" s="1">
+        <v>20200328</v>
+      </c>
+      <c r="B317" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C317" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D317" s="1" t="s">
+        <v>625</v>
+      </c>
+      <c r="E317" s="2" t="s">
+        <v>635</v>
+      </c>
+    </row>
+    <row r="318" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A318" s="1">
+        <v>20200328</v>
+      </c>
+      <c r="B318" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C318" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D318" s="1" t="s">
+        <v>626</v>
+      </c>
+      <c r="E318" s="2" t="s">
+        <v>636</v>
+      </c>
+    </row>
+    <row r="319" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A319" s="1">
+        <v>20200329</v>
+      </c>
+      <c r="B319" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C319" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D319" s="1" t="s">
+        <v>627</v>
+      </c>
+      <c r="E319" s="2" t="s">
+        <v>637</v>
+      </c>
+    </row>
+    <row r="320" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A320" s="1">
+        <v>20200329</v>
+      </c>
+      <c r="B320" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C320" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D320" t="s">
+        <v>628</v>
+      </c>
+      <c r="E320" s="2" t="s">
+        <v>638</v>
+      </c>
+    </row>
+    <row r="321" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A321" s="1">
+        <v>20200329</v>
+      </c>
+      <c r="B321" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C321" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D321" t="s">
+        <v>629</v>
+      </c>
+      <c r="E321" s="2" t="s">
+        <v>636</v>
+      </c>
+    </row>
   </sheetData>
   <autoFilter ref="A1:E205"/>
   <sortState ref="A1:C99">
